--- a/TestData/menu-items-attributes.xlsx
+++ b/TestData/menu-items-attributes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="23">
   <si>
     <t>menu-item</t>
   </si>
@@ -1335,6 +1335,230 @@
         <v>7</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
